--- a/data/Excel Workbooks/Calvin/SouthAfricaDataWorkbook.xlsx
+++ b/data/Excel Workbooks/Calvin/SouthAfricaDataWorkbook.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="136">
   <si>
     <t>Exergy [TJ]</t>
   </si>
@@ -979,6 +979,12 @@
   </si>
   <si>
     <t>Calvin</t>
+  </si>
+  <si>
+    <t>iQp</t>
+  </si>
+  <si>
+    <t>iXp</t>
   </si>
 </sst>
 </file>
@@ -2476,7 +2482,7 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2771,6 +2777,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4190,11 +4199,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2106242616"/>
-        <c:axId val="-2106234584"/>
+        <c:axId val="2121702200"/>
+        <c:axId val="2121694376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2106242616"/>
+        <c:axId val="2121702200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4222,12 +4231,12 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106234584"/>
+        <c:crossAx val="2121694376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2106234584"/>
+        <c:axId val="2121694376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4255,7 +4264,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106242616"/>
+        <c:crossAx val="2121702200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6158,7 +6167,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J22"/>
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6185,13 +6194,11 @@
       <c r="E1" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="70" t="str">
-        <f>'South Africa Workbook'!K10</f>
-        <v>iQ</v>
-      </c>
-      <c r="G1" s="70" t="str">
-        <f>'South Africa Workbook'!L10</f>
-        <v>iX</v>
+      <c r="F1" s="114" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="114" t="s">
+        <v>135</v>
       </c>
       <c r="H1" s="70" t="s">
         <v>114</v>
@@ -11093,17 +11100,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="AB30:AB31"/>
-    <mergeCell ref="AC30:AC31"/>
-    <mergeCell ref="AD30:AD31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="X30:X31"/>
-    <mergeCell ref="Y30:Y31"/>
-    <mergeCell ref="Z30:Z31"/>
-    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="AJ30:AJ31"/>
+    <mergeCell ref="AM30:AM31"/>
+    <mergeCell ref="AN30:AN31"/>
+    <mergeCell ref="AO30:AO31"/>
+    <mergeCell ref="AE30:AE31"/>
+    <mergeCell ref="AF30:AF31"/>
+    <mergeCell ref="AG30:AG31"/>
+    <mergeCell ref="AH30:AH31"/>
+    <mergeCell ref="AI30:AI31"/>
+    <mergeCell ref="AK30:AK31"/>
+    <mergeCell ref="AL30:AL31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
     <mergeCell ref="O30:O31"/>
     <mergeCell ref="P30:P31"/>
     <mergeCell ref="S30:S31"/>
@@ -11118,22 +11130,17 @@
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="Q30:Q31"/>
     <mergeCell ref="R30:R31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="AJ30:AJ31"/>
-    <mergeCell ref="AM30:AM31"/>
-    <mergeCell ref="AN30:AN31"/>
-    <mergeCell ref="AO30:AO31"/>
-    <mergeCell ref="AE30:AE31"/>
-    <mergeCell ref="AF30:AF31"/>
-    <mergeCell ref="AG30:AG31"/>
-    <mergeCell ref="AH30:AH31"/>
-    <mergeCell ref="AI30:AI31"/>
-    <mergeCell ref="AK30:AK31"/>
-    <mergeCell ref="AL30:AL31"/>
+    <mergeCell ref="AB30:AB31"/>
+    <mergeCell ref="AC30:AC31"/>
+    <mergeCell ref="AD30:AD31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="Y30:Y31"/>
+    <mergeCell ref="Z30:Z31"/>
+    <mergeCell ref="AA30:AA31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
